--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/nwr_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/nwr_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -629,7 +629,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -637,7 +637,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -645,7 +645,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -653,7 +653,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -661,7 +661,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -669,7 +669,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -677,7 +677,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -685,7 +685,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
@@ -693,7 +693,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -701,7 +701,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
@@ -709,7 +709,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
@@ -717,7 +717,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
@@ -725,7 +725,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -733,7 +733,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -830,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -838,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -854,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -870,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -878,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -886,7 +886,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -894,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -902,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -974,7 +974,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -982,7 +982,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -990,7 +990,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -998,7 +998,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -1014,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -1022,7 +1022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -1030,7 +1030,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -1038,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -1046,7 +1046,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
@@ -1054,7 +1054,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -1062,7 +1062,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -1070,7 +1070,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -1078,7 +1078,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -1086,7 +1086,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -1094,7 +1094,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -1102,7 +1102,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -1110,7 +1110,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -1118,7 +1118,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -1126,7 +1126,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -1134,7 +1134,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -1142,7 +1142,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -1150,7 +1150,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -1158,7 +1158,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -1166,7 +1166,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48">
@@ -1174,7 +1174,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
@@ -1182,7 +1182,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1247,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1255,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1263,7 +1263,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1271,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -1287,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -1311,7 +1311,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1319,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1327,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -1399,7 +1399,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -1415,7 +1415,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -1423,7 +1423,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -1439,7 +1439,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -1447,7 +1447,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -1455,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -1463,7 +1463,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -1479,7 +1479,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1487,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -1495,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -1503,7 +1503,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -1511,7 +1511,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -1519,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -1535,7 +1535,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -1543,7 +1543,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
@@ -1551,7 +1551,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
@@ -1559,7 +1559,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
@@ -1567,7 +1567,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -1575,7 +1575,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -1583,7 +1583,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -1704,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1712,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -1720,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -1728,7 +1728,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -1736,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -1744,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -1824,7 +1824,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -1832,7 +1832,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -1840,7 +1840,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -1856,7 +1856,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -1864,7 +1864,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -1872,7 +1872,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -1880,7 +1880,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -1888,7 +1888,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -1896,7 +1896,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -1904,7 +1904,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
@@ -1912,7 +1912,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
@@ -1920,7 +1920,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -1928,7 +1928,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -1936,7 +1936,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -1944,7 +1944,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -1952,7 +1952,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -1960,7 +1960,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -1968,7 +1968,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -1976,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -1984,7 +1984,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
@@ -1992,7 +1992,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
@@ -2241,7 +2241,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -2249,7 +2249,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -2273,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -2281,7 +2281,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -2289,7 +2289,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -2297,7 +2297,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -2305,7 +2305,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -2313,7 +2313,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -2321,7 +2321,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
@@ -2329,7 +2329,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -2337,7 +2337,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -2345,7 +2345,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -2353,7 +2353,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -2361,7 +2361,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -2369,7 +2369,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -2377,7 +2377,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
@@ -2385,7 +2385,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
@@ -2393,7 +2393,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -2401,7 +2401,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49">
@@ -2409,7 +2409,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -2458,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -2466,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2474,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -2658,7 +2658,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -2666,7 +2666,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -2690,7 +2690,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -2698,7 +2698,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -2714,7 +2714,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -2722,7 +2722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -2730,7 +2730,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -2738,7 +2738,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -2746,7 +2746,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -2754,7 +2754,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -2762,7 +2762,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
@@ -2770,7 +2770,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -2778,7 +2778,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -2786,7 +2786,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -2794,7 +2794,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
@@ -2802,7 +2802,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
@@ -2810,7 +2810,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
@@ -2818,7 +2818,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -2875,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -2891,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -2899,7 +2899,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -2907,7 +2907,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -2915,7 +2915,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -2923,7 +2923,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -3059,7 +3059,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -3067,7 +3067,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -3075,7 +3075,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -3099,7 +3099,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -3107,7 +3107,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -3123,7 +3123,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
@@ -3131,7 +3131,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -3139,7 +3139,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -3147,7 +3147,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
@@ -3155,7 +3155,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
@@ -3171,7 +3171,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
@@ -3179,7 +3179,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
@@ -3187,7 +3187,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -3203,7 +3203,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -3211,7 +3211,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
@@ -3219,7 +3219,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
@@ -3227,7 +3227,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -3276,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -3284,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -3292,7 +3292,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -3300,7 +3300,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -3308,7 +3308,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -3316,7 +3316,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -3324,7 +3324,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -3332,7 +3332,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -3340,7 +3340,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -3348,7 +3348,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -3356,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -3364,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -3372,7 +3372,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -3380,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -3388,7 +3388,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -3396,7 +3396,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -3436,7 +3436,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -3444,7 +3444,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -3452,7 +3452,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -3460,7 +3460,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -3468,7 +3468,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -3476,7 +3476,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -3484,7 +3484,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -3508,7 +3508,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -3516,7 +3516,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -3532,7 +3532,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -3556,7 +3556,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -3564,7 +3564,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
@@ -3588,7 +3588,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
@@ -3612,7 +3612,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -3620,7 +3620,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
@@ -3628,7 +3628,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -3636,7 +3636,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -3685,7 +3685,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -3693,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -3701,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -3709,7 +3709,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -3717,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -3725,7 +3725,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -3733,7 +3733,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -3741,7 +3741,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -3749,7 +3749,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -3757,7 +3757,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -3765,7 +3765,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -3773,7 +3773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -3781,7 +3781,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -3789,7 +3789,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -3797,7 +3797,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -3813,7 +3813,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -3821,7 +3821,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -3829,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -3837,7 +3837,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -3845,7 +3845,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -3853,7 +3853,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -3861,7 +3861,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -3869,7 +3869,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -3877,7 +3877,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -3885,7 +3885,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -3901,7 +3901,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
@@ -3909,7 +3909,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -3917,7 +3917,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
@@ -3925,7 +3925,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -3941,7 +3941,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -3957,7 +3957,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -3973,7 +3973,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -4021,7 +4021,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
@@ -4029,7 +4029,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -4037,7 +4037,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -4045,7 +4045,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -4094,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -4110,7 +4110,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -4118,7 +4118,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -4126,7 +4126,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -4134,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -4142,7 +4142,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -4150,7 +4150,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -4158,7 +4158,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -4166,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -4174,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -4182,7 +4182,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -4190,7 +4190,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -4198,7 +4198,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -4206,7 +4206,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
@@ -4214,7 +4214,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -4222,7 +4222,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -4230,7 +4230,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -4238,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -4246,7 +4246,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -4254,7 +4254,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -4262,7 +4262,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -4270,7 +4270,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -4278,7 +4278,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -4286,7 +4286,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -4302,7 +4302,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -4310,7 +4310,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -4318,7 +4318,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -4326,7 +4326,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4342,7 +4342,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -4350,7 +4350,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -4366,7 +4366,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -4382,7 +4382,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
@@ -4430,7 +4430,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
@@ -4438,7 +4438,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -4446,7 +4446,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -4454,7 +4454,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -4503,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -4511,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -4519,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -4527,7 +4527,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -4535,7 +4535,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -4543,7 +4543,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -4551,7 +4551,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -4559,7 +4559,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -4567,7 +4567,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -4575,7 +4575,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -4583,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -4591,7 +4591,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -4599,7 +4599,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -4607,7 +4607,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -4615,7 +4615,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -4623,7 +4623,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -4631,7 +4631,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -4639,7 +4639,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -4647,7 +4647,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -4655,7 +4655,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -4663,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -4671,7 +4671,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -4679,7 +4679,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -4687,7 +4687,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -4695,7 +4695,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -4703,7 +4703,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -4711,7 +4711,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -4719,7 +4719,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -4727,7 +4727,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -4735,7 +4735,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -4743,7 +4743,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -4751,7 +4751,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -4759,7 +4759,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -4767,7 +4767,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -4775,7 +4775,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -4783,7 +4783,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
@@ -4791,7 +4791,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -4799,7 +4799,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -4831,7 +4831,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -4839,7 +4839,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -4847,7 +4847,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -4855,7 +4855,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -4863,7 +4863,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4984,7 +4984,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -5008,7 +5008,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -5032,7 +5032,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -5040,7 +5040,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -5056,7 +5056,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -5064,7 +5064,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -5080,7 +5080,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -5096,7 +5096,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -5104,7 +5104,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -5112,7 +5112,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -5120,7 +5120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -5136,7 +5136,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -5160,7 +5160,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -5184,7 +5184,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -5208,7 +5208,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -5216,7 +5216,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -5224,7 +5224,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
@@ -5232,7 +5232,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
@@ -5240,7 +5240,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -5313,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -5321,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -5329,7 +5329,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -5337,7 +5337,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -5345,7 +5345,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -5353,7 +5353,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -5361,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -5369,7 +5369,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -5377,7 +5377,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -5385,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -5393,7 +5393,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -5401,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -5409,7 +5409,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -5417,7 +5417,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -5425,7 +5425,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -5433,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -5441,7 +5441,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -5449,7 +5449,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -5457,7 +5457,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -5465,7 +5465,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -5473,7 +5473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -5481,7 +5481,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -5489,7 +5489,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -5497,7 +5497,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -5505,7 +5505,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -5513,7 +5513,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -5521,7 +5521,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -5529,7 +5529,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -5537,7 +5537,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -5545,7 +5545,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -5553,7 +5553,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5561,7 +5561,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5569,7 +5569,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -5577,7 +5577,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -5585,7 +5585,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
@@ -5593,7 +5593,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -5601,7 +5601,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
@@ -5609,7 +5609,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
@@ -5617,7 +5617,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
@@ -5625,7 +5625,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
@@ -5649,7 +5649,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -5657,7 +5657,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -5665,7 +5665,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
@@ -5673,7 +5673,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -5681,7 +5681,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -5722,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -5730,7 +5730,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -5738,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -5746,7 +5746,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -5754,7 +5754,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -5762,7 +5762,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -5770,7 +5770,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -5778,7 +5778,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -5786,7 +5786,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -5794,7 +5794,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -5802,7 +5802,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -5810,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -5818,7 +5818,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -5826,7 +5826,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -5834,7 +5834,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -5842,7 +5842,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -5850,7 +5850,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -5858,7 +5858,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -5866,7 +5866,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -5874,7 +5874,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -5882,7 +5882,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -5890,7 +5890,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
@@ -5898,7 +5898,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -5906,7 +5906,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -5914,7 +5914,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -5922,7 +5922,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -5930,7 +5930,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -5938,7 +5938,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -5946,7 +5946,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -5954,7 +5954,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -5962,7 +5962,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5970,7 +5970,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -5978,7 +5978,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -5986,7 +5986,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -5994,7 +5994,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -6002,7 +6002,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
@@ -6010,7 +6010,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
@@ -6018,7 +6018,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
@@ -6026,7 +6026,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
@@ -6034,7 +6034,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
@@ -6042,7 +6042,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
@@ -6050,7 +6050,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
@@ -6066,7 +6066,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
@@ -6074,7 +6074,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
@@ -6082,7 +6082,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
@@ -6090,7 +6090,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -6139,7 +6139,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -6147,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -6155,7 +6155,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -6163,7 +6163,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -6171,7 +6171,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -6179,7 +6179,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -6187,7 +6187,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -6195,7 +6195,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -6203,7 +6203,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -6211,7 +6211,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -6219,7 +6219,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -6227,7 +6227,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -6235,7 +6235,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -6243,7 +6243,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -6251,7 +6251,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -6259,7 +6259,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -6267,7 +6267,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -6275,7 +6275,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -6283,7 +6283,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -6291,7 +6291,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -6299,7 +6299,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -6307,7 +6307,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -6315,7 +6315,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -6323,7 +6323,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -6331,7 +6331,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
@@ -6339,7 +6339,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
@@ -6347,7 +6347,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -6355,7 +6355,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
@@ -6363,7 +6363,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -6371,7 +6371,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -6379,7 +6379,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -6387,7 +6387,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -6395,7 +6395,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -6403,7 +6403,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -6411,7 +6411,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -6419,7 +6419,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -6427,7 +6427,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
@@ -6435,7 +6435,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
@@ -6443,7 +6443,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -6451,7 +6451,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
@@ -6459,7 +6459,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
@@ -6467,7 +6467,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
@@ -6491,7 +6491,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
@@ -6499,7 +6499,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -6540,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -6548,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -6556,7 +6556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -6564,7 +6564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -6572,7 +6572,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -6580,7 +6580,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -6588,7 +6588,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -6596,7 +6596,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -6604,7 +6604,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -6612,7 +6612,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -6620,7 +6620,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -6628,7 +6628,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -6636,7 +6636,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -6644,7 +6644,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -6652,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -6660,7 +6660,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -6668,7 +6668,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -6676,7 +6676,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -6684,7 +6684,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -6692,7 +6692,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -6700,7 +6700,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -6708,7 +6708,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -6716,7 +6716,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -6724,7 +6724,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -6732,7 +6732,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -6740,7 +6740,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -6748,7 +6748,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -6756,7 +6756,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
@@ -6764,7 +6764,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -6772,7 +6772,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -6780,7 +6780,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -6788,7 +6788,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -6796,7 +6796,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -6804,7 +6804,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -6812,7 +6812,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -6820,7 +6820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -6828,7 +6828,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
@@ -6836,7 +6836,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -6844,7 +6844,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
@@ -6852,7 +6852,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -6860,7 +6860,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44">
@@ -6868,7 +6868,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
@@ -6876,7 +6876,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -6884,7 +6884,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
@@ -6892,7 +6892,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
@@ -6900,7 +6900,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
@@ -6908,7 +6908,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -6949,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -6957,7 +6957,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -6965,7 +6965,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -6973,7 +6973,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -6981,7 +6981,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -6989,7 +6989,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -6997,7 +6997,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -7005,7 +7005,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -7013,7 +7013,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -7021,7 +7021,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -7029,7 +7029,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -7037,7 +7037,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -7045,7 +7045,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -7053,7 +7053,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -7061,7 +7061,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -7069,7 +7069,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -7077,7 +7077,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -7085,7 +7085,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -7093,7 +7093,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -7101,7 +7101,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -7109,7 +7109,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -7117,7 +7117,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -7125,7 +7125,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -7133,7 +7133,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -7141,7 +7141,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -7149,7 +7149,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -7157,7 +7157,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -7165,7 +7165,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -7173,7 +7173,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -7181,7 +7181,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -7189,7 +7189,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -7197,7 +7197,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -7205,7 +7205,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -7213,7 +7213,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -7221,7 +7221,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -7229,7 +7229,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
@@ -7237,7 +7237,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -7245,7 +7245,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
@@ -7253,7 +7253,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
@@ -7261,7 +7261,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
@@ -7269,7 +7269,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -7277,7 +7277,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
@@ -7285,7 +7285,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
@@ -7293,7 +7293,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47">
@@ -7301,7 +7301,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -7309,7 +7309,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
@@ -7317,7 +7317,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -7414,7 +7414,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -7446,7 +7446,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -7454,7 +7454,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -7478,7 +7478,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -7486,7 +7486,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -7502,7 +7502,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -7510,7 +7510,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -7518,7 +7518,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -7526,7 +7526,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -7534,7 +7534,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -7542,7 +7542,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -7550,7 +7550,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -7558,7 +7558,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -7566,7 +7566,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -7574,7 +7574,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -7582,7 +7582,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -7590,7 +7590,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -7598,7 +7598,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -7606,7 +7606,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -7614,7 +7614,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -7622,7 +7622,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -7630,7 +7630,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -7638,7 +7638,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -7646,7 +7646,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -7654,7 +7654,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -7662,7 +7662,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
@@ -7694,7 +7694,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -7702,7 +7702,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
@@ -7775,7 +7775,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -7831,7 +7831,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -7863,7 +7863,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -7871,7 +7871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -7879,7 +7879,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -7895,7 +7895,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -7903,7 +7903,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -7911,7 +7911,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -7919,7 +7919,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -7927,7 +7927,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -7935,7 +7935,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -7943,7 +7943,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -7951,7 +7951,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -7959,7 +7959,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -7967,7 +7967,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -7975,7 +7975,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -7983,7 +7983,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -7991,7 +7991,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -7999,7 +7999,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -8007,7 +8007,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -8015,7 +8015,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -8023,7 +8023,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -8031,7 +8031,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -8039,7 +8039,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -8047,7 +8047,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -8055,7 +8055,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -8063,7 +8063,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -8071,7 +8071,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -8079,7 +8079,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
@@ -8087,7 +8087,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
@@ -8095,7 +8095,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -8103,7 +8103,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -8111,7 +8111,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -8119,7 +8119,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -8176,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -8232,7 +8232,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -8280,7 +8280,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -8288,7 +8288,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -8296,7 +8296,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -8312,7 +8312,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -8320,7 +8320,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -8328,7 +8328,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -8336,7 +8336,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -8344,7 +8344,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -8352,7 +8352,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -8360,7 +8360,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -8368,7 +8368,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -8376,7 +8376,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
@@ -8384,7 +8384,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -8392,7 +8392,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -8400,7 +8400,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -8408,7 +8408,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -8416,7 +8416,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -8424,7 +8424,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -8432,7 +8432,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -8440,7 +8440,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -8448,7 +8448,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -8456,7 +8456,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
@@ -8464,7 +8464,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -8472,7 +8472,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
@@ -8480,7 +8480,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -8488,7 +8488,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -8496,7 +8496,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -8504,7 +8504,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -8512,7 +8512,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -8520,7 +8520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -8601,7 +8601,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -8609,7 +8609,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -8617,7 +8617,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -8625,7 +8625,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -8681,7 +8681,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -8689,7 +8689,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -8697,7 +8697,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -8721,7 +8721,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -8729,7 +8729,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -8737,7 +8737,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -8745,7 +8745,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -8753,7 +8753,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -8761,7 +8761,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -8769,7 +8769,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -8777,7 +8777,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -8785,7 +8785,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -8793,7 +8793,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -8801,7 +8801,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -8809,7 +8809,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -8817,7 +8817,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -8825,7 +8825,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -8833,7 +8833,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -8841,7 +8841,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
@@ -8849,7 +8849,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -8857,7 +8857,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -8865,7 +8865,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -8873,7 +8873,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -8881,7 +8881,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -8889,7 +8889,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
@@ -8897,7 +8897,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -8905,7 +8905,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -8913,7 +8913,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -8921,7 +8921,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -8929,7 +8929,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -8937,7 +8937,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -8945,7 +8945,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -9122,7 +9122,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -9130,7 +9130,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -9138,7 +9138,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -9146,7 +9146,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -9154,7 +9154,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -9162,7 +9162,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -9170,7 +9170,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -9178,7 +9178,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -9186,7 +9186,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -9194,7 +9194,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -9202,7 +9202,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -9210,7 +9210,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -9218,7 +9218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -9226,7 +9226,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -9234,7 +9234,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -9242,7 +9242,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -9250,7 +9250,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -9258,7 +9258,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
@@ -9266,7 +9266,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -9274,7 +9274,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
@@ -9282,7 +9282,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -9290,7 +9290,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -9298,7 +9298,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -9306,7 +9306,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -9314,7 +9314,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
@@ -9322,7 +9322,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
@@ -9330,7 +9330,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -9338,7 +9338,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
@@ -9346,7 +9346,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -9354,7 +9354,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -9403,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -9411,7 +9411,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -9419,7 +9419,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -9427,7 +9427,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -9523,7 +9523,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -9531,7 +9531,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -9563,7 +9563,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -9571,7 +9571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -9579,7 +9579,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -9587,7 +9587,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -9595,7 +9595,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -9603,7 +9603,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -9611,7 +9611,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -9619,7 +9619,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -9627,7 +9627,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -9635,7 +9635,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -9643,7 +9643,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -9651,7 +9651,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -9659,7 +9659,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -9667,7 +9667,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -9675,7 +9675,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -9683,7 +9683,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -9691,7 +9691,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -9699,7 +9699,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -9707,7 +9707,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -9715,7 +9715,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -9723,7 +9723,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
@@ -9731,7 +9731,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
@@ -9739,7 +9739,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
@@ -9747,7 +9747,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -9755,7 +9755,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -9763,7 +9763,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -9771,7 +9771,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -9812,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -9820,7 +9820,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -9828,7 +9828,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -9836,7 +9836,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -9844,7 +9844,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -9852,7 +9852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -9860,7 +9860,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -9868,7 +9868,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -9876,7 +9876,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -9956,7 +9956,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -9964,7 +9964,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -9972,7 +9972,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -9996,7 +9996,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -10004,7 +10004,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -10012,7 +10012,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -10020,7 +10020,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -10028,7 +10028,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -10036,7 +10036,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -10044,7 +10044,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -10052,7 +10052,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -10060,7 +10060,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
@@ -10068,7 +10068,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -10076,7 +10076,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -10084,7 +10084,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -10092,7 +10092,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -10100,7 +10100,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -10108,7 +10108,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -10116,7 +10116,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -10124,7 +10124,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -10132,7 +10132,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -10140,7 +10140,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -10148,7 +10148,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -10156,7 +10156,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
@@ -10164,7 +10164,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
@@ -10172,7 +10172,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
